--- a/biology/Zoologie/Alcidae/Alcidae.xlsx
+++ b/biology/Zoologie/Alcidae/Alcidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Alcidés (Alcidae) sont une famille d'oiseaux constituée de 10 genres et de 23 espèces existantes. Parfois appelées sous le terme générique de « Alques »[1], ces espèces sont plus précisément nommées mergules, guillemots, pingouins, stariques et macareux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Alcidés (Alcidae) sont une famille d'oiseaux constituée de 10 genres et de 23 espèces existantes. Parfois appelées sous le terme générique de « Alques », ces espèces sont plus précisément nommées mergules, guillemots, pingouins, stariques et macareux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les alcidés[2] sont des oiseaux marins de taille petite à moyenne (de 12 à 43 cm), qui se propulsent sous l'eau à l'aide de leurs ailes. Ils ont le corps trapu et la queue courte, avec les pattes implantées très en arrière. Leur plumage est principalement noir ou gris foncé dessus, blanc dessous. Exclusivement marins, ils ont une répartition circumpolaire (océans de l'hémisphère Nord).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alcidés sont des oiseaux marins de taille petite à moyenne (de 12 à 43 cm), qui se propulsent sous l'eau à l'aide de leurs ailes. Ils ont le corps trapu et la queue courte, avec les pattes implantées très en arrière. Leur plumage est principalement noir ou gris foncé dessus, blanc dessous. Exclusivement marins, ils ont une répartition circumpolaire (océans de l'hémisphère Nord).
 Une espèce de cette famille, le Grand Pingouin († Pinguinus impennis), a été exterminée par l'homme au cours du XIXe siècle.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Différence entre pingouins et manchots</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En français, le terme « Pingouin » désigne plusieurs espèces d'oiseaux de la famille des Alcidae, vivant dans l'hémisphère nord. Ils n'ont aucun lien avec les Manchots, qui appartiennent à la famille des Spheniscidae et vivent en Antarctique (hémisphère sud), et dont aucun ne peut voler.
 </t>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les termes « alques », « alciformes », « alcidés » et « alcinés » ont été construits sur la racine « alc- », un terme dérivé du norique alka, terme que l'on retrouve dans le norvégien alke pour désigner le petit pingouin, ou l'anglais auk pour désigner n'importe quel alcidé en général. La racine alc- dériverait d'une racine indo-européenne signifiant « crier »[3]. Alcyon se serait formé en latin d'une manière analogue, d'où les Alcedininae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les termes « alques », « alciformes », « alcidés » et « alcinés » ont été construits sur la racine « alc- », un terme dérivé du norique alka, terme que l'on retrouve dans le norvégien alke pour désigner le petit pingouin, ou l'anglais auk pour désigner n'importe quel alcidé en général. La racine alc- dériverait d'une racine indo-européenne signifiant « crier ». Alcyon se serait formé en latin d'une manière analogue, d'où les Alcedininae.
 </t>
         </is>
       </c>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liste des genres et espèces modernes
-D'après la classification de référence du Congrès ornithologique international  (version 6.2, 2016)[4] :
+          <t>Liste des genres et espèces modernes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 6.2, 2016) :
 genre Alle Link, 1806
 Alle alle (Linnaeus, 1758) – Mergule nain
 genre Uria Brisson, 1760
@@ -656,8 +679,43 @@
 			Synthliboramphus antiquus
 			Uria aalge
 			Pinguinus impennis
-Classification et genres fossiles
-Classification des genres fossiles, d'après Paleobiology Database                   (septembre 2016)[5]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alcidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classification et genres fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Classification des genres fossiles, d'après Paleobiology Database                   (septembre 2016):
 Pan-Alcidae:
 † Alcodes Howard, 1968:
 † Pliolunda Miller, 1937
@@ -673,36 +731,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alcidae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcidae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Place au sein de l'ordre
-Phylogénie des familles de Charadriiformes du sous-ordre Lari, selon Tree of life[6] :
-Dans la famille
-Phylogénie des genres modernes d'alcidés, d'après Smith, 2011[7] et 2014[8] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Place au sein de l'ordre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles de Charadriiformes du sous-ordre Lari, selon Tree of life :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alcidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans la famille</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres modernes d'alcidés, d'après Smith, 2011 et 2014 :
 </t>
         </is>
       </c>
